--- a/assets/files/A5.xlsx
+++ b/assets/files/A5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -287,11 +287,11 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,1131 +600,1131 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="3"/>
-    <col min="8" max="8" width="8.85546875" style="3"/>
-    <col min="11" max="11" width="8.85546875" style="3"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>74.371859296482413</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>25.628140703517587</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>199</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5">
         <v>82.446808510638292</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <v>17.553191489361701</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="6">
         <v>188</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="5">
         <v>78.294573643410857</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="5">
         <v>21.705426356589147</v>
       </c>
       <c r="K2" s="6">
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>48.582995951417004</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>51.417004048582996</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>247</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="5">
         <v>53.278688524590166</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="5">
         <v>46.721311475409834</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="6">
         <v>122</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="5">
         <v>50.135501355013552</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="5">
         <v>49.864498644986448</v>
       </c>
       <c r="K3" s="6">
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <v>62.745098039215684</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>37.254901960784316</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <v>459</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="5">
         <v>64.372469635627525</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <v>35.627530364372468</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="6">
         <v>247</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="5">
         <v>63.314447592067985</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="5">
         <v>36.685552407932015</v>
       </c>
       <c r="K4" s="6">
         <v>706</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>62.025316455696199</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>37.974683544303801</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>79</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="5">
         <v>59.566787003610109</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <v>40.433212996389891</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
         <v>277</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="5">
         <v>60.112359550561798</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="5">
         <v>39.887640449438202</v>
       </c>
       <c r="K5" s="6">
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>69.491525423728817</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>30.508474576271187</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>177</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="5">
         <v>75.238095238095241</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="5">
         <v>24.761904761904763</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <v>105</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="5">
         <v>71.63120567375887</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="5">
         <v>28.368794326241133</v>
       </c>
       <c r="K6" s="6">
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>90.155440414507765</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>9.8445595854922274</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>193</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="5">
         <v>87.793427230046944</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="5">
         <v>12.206572769953052</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>213</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="5">
         <v>88.916256157635473</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="5">
         <v>11.083743842364532</v>
       </c>
       <c r="K7" s="6">
         <v>406</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <v>81.395348837209298</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>18.604651162790699</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="6">
         <v>43</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="5">
         <v>80.428134556574918</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <v>19.571865443425075</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="6">
         <v>327</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="5">
         <v>80.540540540540547</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="5">
         <v>19.45945945945946</v>
       </c>
       <c r="K8" s="6">
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>65.163934426229503</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>34.83606557377049</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>244</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="5">
         <v>65.467625899280577</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="5">
         <v>34.532374100719423</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>139</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="5">
         <v>65.274151436031332</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="5">
         <v>34.725848563968668</v>
       </c>
       <c r="K9" s="6">
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="5">
         <v>60.919540229885058</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <v>39.080459770114942</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>87</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="5">
         <v>57.65124555160142</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="5">
         <v>42.34875444839858</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>281</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="5">
         <v>58.423913043478258</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="5">
         <v>41.576086956521742</v>
       </c>
       <c r="K10" s="6">
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <v>77.386934673366838</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <v>22.613065326633166</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>199</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="5">
         <v>77.900552486187848</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="5">
         <v>22.099447513812155</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>181</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="5">
         <v>77.631578947368425</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="5">
         <v>22.368421052631579</v>
       </c>
       <c r="K11" s="6">
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <v>74.666666666666671</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <v>25.333333333333332</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="6">
         <v>225</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="5">
         <v>67.532467532467535</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="5">
         <v>32.467532467532465</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="6">
         <v>154</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="5">
         <v>71.76781002638522</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="5">
         <v>28.232189973614776</v>
       </c>
       <c r="K12" s="6">
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <v>72.727272727272734</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <v>27.272727272727273</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="6">
         <v>231</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="5">
         <v>73.394495412844037</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="5">
         <v>26.605504587155963</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="6">
         <v>109</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="5">
         <v>72.941176470588232</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="5">
         <v>27.058823529411764</v>
       </c>
       <c r="K13" s="6">
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>64.22764227642277</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>35.772357723577237</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="6">
         <v>123</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="5">
         <v>61.752988047808763</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="5">
         <v>38.247011952191237</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="6">
         <v>251</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="5">
         <v>62.566844919786099</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="5">
         <v>37.433155080213901</v>
       </c>
       <c r="K14" s="6">
         <v>374</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="5">
         <v>37.5</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <v>62.5</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="6">
         <v>48</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="5">
         <v>74.404761904761898</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="5">
         <v>25.595238095238095</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="6">
         <v>336</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="5">
         <v>69.791666666666671</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="5">
         <v>30.208333333333332</v>
       </c>
       <c r="K15" s="6">
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="5">
         <v>78</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="5">
         <v>22</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="6">
         <v>150</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="5">
         <v>80.932203389830505</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="5">
         <v>19.067796610169491</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="6">
         <v>236</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="5">
         <v>79.792746113989637</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="5">
         <v>20.207253886010363</v>
       </c>
       <c r="K16" s="6">
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="5">
         <v>0</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="5">
         <v>0</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="6">
         <v>0</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="5">
         <v>73.228346456692918</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="5">
         <v>26.771653543307085</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="6">
         <v>381</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="5">
         <v>73.228346456692918</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="5">
         <v>26.771653543307085</v>
       </c>
       <c r="K17" s="6">
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="5">
         <v>71.794871794871796</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="5">
         <v>28.205128205128204</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="6">
         <v>39</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="5">
         <v>79.765395894428153</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="5">
         <v>20.234604105571847</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="6">
         <v>341</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="5">
         <v>78.94736842105263</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="5">
         <v>21.05263157894737</v>
       </c>
       <c r="K18" s="6">
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="5">
         <v>79.885057471264375</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="5">
         <v>20.114942528735632</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="6">
         <v>174</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="5">
         <v>75.95628415300547</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="5">
         <v>24.043715846994534</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="6">
         <v>183</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="5">
         <v>77.871148459383747</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="5">
         <v>22.128851540616246</v>
       </c>
       <c r="K19" s="6">
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="5">
         <v>54.545454545454547</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="5">
         <v>45.454545454545453</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="6">
         <v>33</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="5">
         <v>55.013550135501355</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="5">
         <v>44.986449864498645</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="6">
         <v>369</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="5">
         <v>54.975124378109456</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="5">
         <v>45.024875621890544</v>
       </c>
       <c r="K20" s="6">
         <v>402</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="5">
         <v>69.458128078817737</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="5">
         <v>30.541871921182267</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="6">
         <v>203</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="5">
         <v>69.444444444444443</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="5">
         <v>30.555555555555557</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="6">
         <v>180</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="5">
         <v>69.451697127937337</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="5">
         <v>30.548302872062663</v>
       </c>
       <c r="K21" s="6">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="5">
         <v>69.364161849710982</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="5">
         <v>30.635838150289018</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="6">
         <v>173</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="5">
         <v>66.829268292682926</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="5">
         <v>33.170731707317074</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="6">
         <v>205</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="5">
         <v>67.989417989417987</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="5">
         <v>32.010582010582013</v>
       </c>
       <c r="K22" s="6">
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="5">
         <v>74.331550802139034</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="5">
         <v>25.668449197860962</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="6">
         <v>187</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="5">
         <v>76.410256410256409</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="5">
         <v>23.589743589743591</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="6">
         <v>195</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="5">
         <v>75.392670157068068</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="5">
         <v>24.607329842931936</v>
       </c>
       <c r="K23" s="6">
         <v>382</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="5">
         <v>99.056603773584911</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="5">
         <v>0.94339622641509435</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="6">
         <v>318</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="5">
         <v>93.548387096774192</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="5">
         <v>6.4516129032258061</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="6">
         <v>62</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="5">
         <v>98.15789473684211</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="5">
         <v>1.8421052631578947</v>
       </c>
       <c r="K24" s="6">
         <v>380</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="5">
         <v>65.240641711229941</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="5">
         <v>34.759358288770052</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="6">
         <v>187</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="5">
         <v>70.157068062827221</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="5">
         <v>29.842931937172775</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="6">
         <v>191</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="5">
         <v>67.724867724867721</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="5">
         <v>32.275132275132272</v>
       </c>
       <c r="K25" s="6">
         <v>378</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="5">
         <v>85.268630849220102</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="5">
         <v>14.731369150779896</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="6">
         <v>577</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="5">
         <v>62.481426448736997</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="5">
         <v>37.518573551263003</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="6">
         <v>1346</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="5">
         <v>69.318772750910043</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="5">
         <v>30.681227249089964</v>
       </c>
       <c r="K26" s="6">
         <v>1923</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="5">
         <v>24.637681159420289</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="5">
         <v>75.362318840579704</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="6">
         <v>138</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="5">
         <v>33.65570599613153</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="5">
         <v>66.34429400386847</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="6">
         <v>517</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="5">
         <v>31.755725190839694</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="5">
         <v>68.244274809160302</v>
       </c>
       <c r="K27" s="6">
         <v>655</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="5">
         <v>73.07692307692308</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="5">
         <v>26.923076923076923</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="6">
         <v>130</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="5">
         <v>67.567567567567565</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="5">
         <v>32.432432432432435</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="6">
         <v>185</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="5">
         <v>69.841269841269835</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="5">
         <v>30.158730158730158</v>
       </c>
       <c r="K28" s="6">
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="5">
         <v>41.563786008230451</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="5">
         <v>58.436213991769549</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="6">
         <v>243</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="5">
         <v>52.459016393442624</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="5">
         <v>47.540983606557376</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="6">
         <v>122</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="5">
         <v>45.205479452054796</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="5">
         <v>54.794520547945204</v>
       </c>
       <c r="K29" s="6">
         <v>365</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="5">
         <v>76.774193548387103</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="5">
         <v>23.225806451612904</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="6">
         <v>155</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="5">
         <v>74.568965517241381</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="5">
         <v>25.431034482758619</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="6">
         <v>232</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="5">
         <v>75.452196382428937</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="5">
         <v>24.547803617571059</v>
       </c>
       <c r="K30" s="6">
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="5">
         <v>72.972972972972968</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="5">
         <v>27.027027027027028</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="6">
         <v>111</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="5">
         <v>55.719557195571959</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="5">
         <v>44.280442804428041</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="6">
         <v>271</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="5">
         <v>60.732984293193716</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="5">
         <v>39.267015706806284</v>
       </c>
       <c r="K31" s="6">
         <v>382</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="5">
         <v>60</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="5">
         <v>40</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="6">
         <v>15</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="5">
         <v>72.777777777777771</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="5">
         <v>27.222222222222221</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="6">
         <v>360</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="5">
         <v>72.266666666666666</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="5">
         <v>27.733333333333334</v>
       </c>
       <c r="K32" s="6">
